--- a/Online-Portals/PreBuilding/TestCases.xlsx
+++ b/Online-Portals/PreBuilding/TestCases.xlsx
@@ -21,61 +21,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="31">
-  <si>
-    <t xml:space="preserve"> SNO</t>
-  </si>
-  <si>
-    <t>Test Cases</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>Existing flight Booking Push (sanity only)</t>
-  </si>
-  <si>
-    <t>Existing book ancialliary flow from MIMA (sanity only)</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>BNPL book ancialliary flow  (auto payment from saved card)   (Booking Type Values: Book_Now_Pay_Later_Flights(4) , Bloom_Flights(5))</t>
-    </r>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="14">
   <si>
     <t>Pass</t>
   </si>
   <si>
-    <t>&lt;Field Name="Booking Type"&gt;1&lt;/Field&gt;
-&lt;Field Name="Payment Charge Date"&gt;2018-04-16 00:00:00&lt;/Field&gt;</t>
-  </si>
-  <si>
-    <t>NF72995136928218A1</t>
-  </si>
-  <si>
-    <t>NF22995138985118A</t>
-  </si>
-  <si>
-    <t>Flights bnpl Booking push (with extra 2 nodes in QueryHeader Tab)
-Verified two extra node in DB bookingtype,paymentchargedate in documentinfo table</t>
-  </si>
-  <si>
     <t>SuiteName</t>
   </si>
   <si>
@@ -100,30 +50,9 @@
     <t>test.java.TestCSRManageUsers</t>
   </si>
   <si>
-    <t>BookingID</t>
-  </si>
-  <si>
     <t>pass</t>
   </si>
   <si>
-    <t>3 new nodes in flight v1/flight/booking api 
-paymentChargeDate
-bnplbooking
-bloombooking</t>
-  </si>
-  <si>
-    <t>Amount paid info in Booking Voucher is not present - NH7003379226573A (NF72995136928218A5)</t>
-  </si>
-  <si>
-    <t>EasyPay URL and amount paid not appering in SMS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In Watsapp message amount and esay pay link is missing </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Below is missing for both Bloom and </t>
-  </si>
-  <si>
     <t>ClassName</t>
   </si>
   <si>
@@ -131,9 +60,6 @@
   </si>
   <si>
     <t>CSR_Regression_Suite</t>
-  </si>
-  <si>
-    <t>test.java.TestUPAManageUsers1</t>
   </si>
   <si>
     <t>CSR_Regression</t>
@@ -143,7 +69,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -158,12 +84,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="7"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -186,31 +106,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -484,7 +386,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -492,117 +394,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.6640625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="133.44140625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="39" customWidth="1"/>
+    <col min="1" max="1" width="6.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="1">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="3">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
         <v>5</v>
       </c>
-      <c r="C5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <v>5</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="B10" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="B11" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="B12" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="B13" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B21" s="4" t="s">
-        <v>7</v>
+      <c r="B3" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -613,10 +437,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -627,58 +451,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>26</v>
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -699,35 +512,35 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="B1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Online-Portals/PreBuilding/TestCases.xlsx
+++ b/Online-Portals/PreBuilding/TestCases.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
   <si>
     <t>Pass</t>
   </si>
@@ -63,6 +63,18 @@
   </si>
   <si>
     <t>CSR_Regression</t>
+  </si>
+  <si>
+    <t>Enrollment Flow</t>
+  </si>
+  <si>
+    <t>test.java.TestUPAEnrollment</t>
+  </si>
+  <si>
+    <t>My Profile</t>
+  </si>
+  <si>
+    <t>test.java.TestUPAMyProfileTab</t>
   </si>
 </sst>
 </file>
@@ -437,10 +449,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -485,12 +497,34 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>13</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B6" t="s">
         <v>7</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C6" t="s">
         <v>8</v>
       </c>
     </row>

--- a/Online-Portals/PreBuilding/TestCases.xlsx
+++ b/Online-Portals/PreBuilding/TestCases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7620" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="20496" windowHeight="7560" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="BLOOM" sheetId="1" r:id="rId1"/>
@@ -452,7 +452,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -522,7 +522,7 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C6" t="s">
         <v>8</v>

--- a/Online-Portals/PreBuilding/TestCases.xlsx
+++ b/Online-Portals/PreBuilding/TestCases.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="20">
   <si>
     <t>Pass</t>
   </si>
@@ -75,6 +75,12 @@
   </si>
   <si>
     <t>test.java.TestUPAMyProfileTab</t>
+  </si>
+  <si>
+    <t>View Payments</t>
+  </si>
+  <si>
+    <t>test.java.TestViewPayments</t>
   </si>
 </sst>
 </file>
@@ -398,7 +404,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -449,10 +455,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -511,20 +517,31 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>13</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>3</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C7" t="s">
         <v>8</v>
       </c>
     </row>

--- a/Online-Portals/PreBuilding/TestCases.xlsx
+++ b/Online-Portals/PreBuilding/TestCases.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="26">
   <si>
     <t>Pass</t>
   </si>
@@ -80,7 +80,25 @@
     <t>View Payments</t>
   </si>
   <si>
-    <t>test.java.TestViewPayments</t>
+    <t>Provider View Payments</t>
+  </si>
+  <si>
+    <t>BS View Payments</t>
+  </si>
+  <si>
+    <t>Payer View Payments</t>
+  </si>
+  <si>
+    <t>test.java.TestProviderViewPayments</t>
+  </si>
+  <si>
+    <t>test.java.TestBSViewPayments</t>
+  </si>
+  <si>
+    <t>test.java.TestPayerViewPayments</t>
+  </si>
+  <si>
+    <t>TestCSRViewPayments</t>
   </si>
 </sst>
 </file>
@@ -404,7 +422,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -455,10 +473,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -517,10 +535,10 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -528,21 +546,54 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>13</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B9" t="s">
         <v>3</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C9" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/Online-Portals/PreBuilding/TestCases.xlsx
+++ b/Online-Portals/PreBuilding/TestCases.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="28">
   <si>
     <t>Pass</t>
   </si>
@@ -98,7 +98,13 @@
     <t>test.java.TestPayerViewPayments</t>
   </si>
   <si>
-    <t>TestCSRViewPayments</t>
+    <t>test.java.TestCSRViewPayments</t>
+  </si>
+  <si>
+    <t>Create Enrollment</t>
+  </si>
+  <si>
+    <t>test.java.TestCreateEnrollment</t>
   </si>
 </sst>
 </file>
@@ -422,7 +428,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -473,10 +479,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -594,6 +600,17 @@
       </c>
       <c r="C10" t="s">
         <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/Online-Portals/PreBuilding/TestCases.xlsx
+++ b/Online-Portals/PreBuilding/TestCases.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="28">
   <si>
     <t>Pass</t>
   </si>
@@ -99,6 +99,12 @@
   </si>
   <si>
     <t>TestCSRViewPayments</t>
+  </si>
+  <si>
+    <t>Create Enrollment</t>
+  </si>
+  <si>
+    <t>test.java.TestCreateEnrollment</t>
   </si>
 </sst>
 </file>
@@ -422,7 +428,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -473,10 +479,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -568,31 +574,42 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>13</v>
       </c>
       <c r="B10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
         <v>18</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C11" t="s">
         <v>25</v>
       </c>
     </row>

--- a/Online-Portals/PreBuilding/TestCases.xlsx
+++ b/Online-Portals/PreBuilding/TestCases.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="26">
   <si>
     <t>Pass</t>
   </si>
@@ -99,12 +99,6 @@
   </si>
   <si>
     <t>TestCSRViewPayments</t>
-  </si>
-  <si>
-    <t>Create Enrollment</t>
-  </si>
-  <si>
-    <t>test.java.TestCreateEnrollment</t>
   </si>
 </sst>
 </file>
@@ -428,7 +422,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -479,10 +473,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -574,42 +568,31 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" t="s">
         <v>25</v>
       </c>
     </row>

--- a/Online-Portals/PreBuilding/TestCases.xlsx
+++ b/Online-Portals/PreBuilding/TestCases.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="34">
   <si>
     <t>Pass</t>
   </si>
@@ -65,12 +65,6 @@
     <t>CSR_Regression</t>
   </si>
   <si>
-    <t>Enrollment Flow</t>
-  </si>
-  <si>
-    <t>test.java.TestUPAEnrollment</t>
-  </si>
-  <si>
     <t>My Profile</t>
   </si>
   <si>
@@ -98,13 +92,37 @@
     <t>test.java.TestPayerViewPayments</t>
   </si>
   <si>
-    <t>TestCSRViewPayments</t>
-  </si>
-  <si>
     <t>Create Enrollment</t>
   </si>
   <si>
     <t>test.java.TestCreateEnrollment</t>
+  </si>
+  <si>
+    <t>Provider Search Remittance</t>
+  </si>
+  <si>
+    <t>test.java.TestProviderSearchRemittance</t>
+  </si>
+  <si>
+    <t>BS Search Remittance</t>
+  </si>
+  <si>
+    <t>test.java.TestBSSearchRemittance</t>
+  </si>
+  <si>
+    <t>SubPayer Search Remittance</t>
+  </si>
+  <si>
+    <t>test.java.TestSubPayerSearchRemittance</t>
+  </si>
+  <si>
+    <t>test.java.TestCSRViewPayments</t>
+  </si>
+  <si>
+    <t>test.java.TestCSRSearchRemittance</t>
+  </si>
+  <si>
+    <t>Search Remittance</t>
   </si>
 </sst>
 </file>
@@ -428,7 +446,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -479,10 +497,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -530,10 +548,10 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -541,10 +559,10 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -552,10 +570,10 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -563,7 +581,7 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
         <v>24</v>
@@ -574,10 +592,10 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -585,32 +603,65 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>13</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B12" t="s">
         <v>3</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C12" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>13</v>
       </c>
-      <c r="B11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
